--- a/_CONCAT_MRPA_PSDS.xlsx
+++ b/_CONCAT_MRPA_PSDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E9ED45-F524-487D-9F3F-9B4D7C960CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6491081D-4215-40CE-A8DC-A73831BA9F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="29070" windowHeight="19695" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="6225" yWindow="870" windowWidth="26775" windowHeight="17745" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,239 +58,392 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>This ITP Signed Off</t>
-  </si>
-  <si>
     <t>Non-conformance Report (NCR) Closure</t>
   </si>
   <si>
-    <t>Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed.</t>
-  </si>
-  <si>
     <t>Document Review</t>
   </si>
   <si>
     <t>Once, prior to closure of this lot / element / Work area</t>
   </si>
   <si>
-    <t>Material Conformance</t>
-  </si>
-  <si>
-    <t>IFC Drawings (MRP-089-C-ACD-DRG-30-BFD-CBR-2848)_x000D_
-_x000D_
-Section 204.04 b)_x000D_
-Table 204.041</t>
-  </si>
-  <si>
-    <t>CBR ≥ 8% and Swell ≤ 1.5%_x000D_
-Max Permeability = 5E-9 m/s_x000D_
-Grading: 75.0mm 100%_x000D_
-                4.75mm 40-80%_x000D_
-                0.075mm 10-40%_x000D_
-Max. PI x%Passing 0.425mm = 1000 , PI = 6 to 25_x000D_
-_x000D_
-Reference: TeamBinder Material Approval Ref No.</t>
-  </si>
-  <si>
-    <t>Once, for each material type</t>
-  </si>
-  <si>
-    <t>Nominated Authority</t>
-  </si>
-  <si>
-    <t>Conqa HP Release</t>
-  </si>
-  <si>
-    <t>Pre-Commencement of Fill Works</t>
-  </si>
-  <si>
-    <t>Section 204.10 (b)</t>
-  </si>
-  <si>
-    <t>Areas upon which fills are to be constructed shall be prepared for test rolling by the Contractor._x000D_
-The Contractor shall not commence placing any fill on the prepared areas until the area has been reviewed by the Nominated Authority._x000D_
-No fill shall be placed against or within 3 m of a structure until the foundation for the fill has been reviewed by the Nominated Authority_x000D_
-_x000D_
-Reference: Subgrade Preparation / Previous Layer Lot Number_x000D_
-Attach: Lot Maps</t>
-  </si>
-  <si>
-    <t>Visual Inspection</t>
-  </si>
-  <si>
-    <t>Prior to commencement of fill works</t>
-  </si>
-  <si>
-    <t>Survey Set Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFC Drawings </t>
-  </si>
-  <si>
-    <t>Set out pegs in place and clearly mark out limits of works._x000D_
-_x000D_
-Attach: Lot Maps</t>
-  </si>
-  <si>
     <t>HP*</t>
   </si>
   <si>
-    <t>SE/PE/SPE</t>
-  </si>
-  <si>
-    <t>Placing of Fill</t>
-  </si>
-  <si>
-    <t>Section 204.10 (d)</t>
-  </si>
-  <si>
-    <t>Type A material shall be spread and compacted in layers not exceeding a compacted thickness of 200 mm.</t>
-  </si>
-  <si>
     <t>Each Lot</t>
   </si>
   <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>PE/SE/Site Supervisor</t>
-  </si>
-  <si>
-    <t>Fill at Structures (where applicable)</t>
-  </si>
-  <si>
-    <t>Section 204.11 (b)</t>
-  </si>
-  <si>
-    <t>No Fill shall be placed against or within 3m of a structure until the foundation for the fill has been reviewed by the Superintendent_x000D_
-_x000D_
-In addition to the placement of Type A material at bridge abutments as structural material, embankment material or backfilling within 3 metres of retaining walls, wing walls, all crown units, and culverts with an opening height greater than 1200 mm, shall be material of at least Type A material quality.</t>
-  </si>
-  <si>
-    <t>Site Inspection</t>
-  </si>
-  <si>
-    <t>Test Roll / Proof Roll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section 173.03_x000D_
-Section 204.12_x000D_
+    <t>IP</t>
+  </si>
+  <si>
+    <t>MRPA Quality Management Plan</t>
+  </si>
+  <si>
+    <t>Submit Mix Design - Cement treated crushed rock (CTCR) mix</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl. 815.05_x000D_
+_x000D_
+VicRoads Spec. Cl.306.04_x000D_
+_x000D_
+VicRoads Spec. TN 107_x000D_
+_x000D_
+VicRoads Spec. CoC 500.02_x000D_
+_x000D_
+IFC Drawings</t>
+  </si>
+  <si>
+    <t>Cement treated crushed rock mixes for use on specified works can be registered in accordance with VicRoads Code of Practice for Registration of Crushed Rock Mix Designs as listed in Section 175._x000D_
+_x000D_
+CTCR shall comply with Section 815 CHAR(AMP) 821, TN107 CHAR(AMP) CoC 500.02_x000D_
+_x000D_
+Enter: Teambinder Material Approval number_x000D_
+[free text box]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once, for each mix design, 4 weeks prior to placement of concrete </t>
+  </si>
+  <si>
+    <t>SE CHAR(AMP) Nominated Authority</t>
+  </si>
+  <si>
+    <t>Issue to TeamBinder: VicRoads registered cement treated crushed rock mix</t>
+  </si>
+  <si>
+    <t>Hold Point - Alternate Binder (if applicable)</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.09(a)</t>
+  </si>
+  <si>
+    <t>If a binder other than those listed in Table 306.091 is proposed for use, laboratory test results must be produced to show that binder satisfies the required working time and strength determined in accordance with the VicRoads Test Method._x000D_
+_x000D_
+Enter: Teambinder Material Approval number_x000D_
+[free text box]</t>
+  </si>
+  <si>
+    <t>Once per material type, prior to commencement of works</t>
+  </si>
+  <si>
+    <t>Issue to TeamBinder: Test Records</t>
+  </si>
+  <si>
+    <t>Check that current revision drawings are being used</t>
+  </si>
+  <si>
+    <t>Project Drawings / Drawing Register</t>
+  </si>
+  <si>
+    <t>Issued For Construction (IFC) and latest available revision used</t>
+  </si>
+  <si>
+    <t>Document review</t>
+  </si>
+  <si>
+    <t>SE / Site Foreman</t>
+  </si>
+  <si>
+    <t>This ITP</t>
+  </si>
+  <si>
+    <t>Previous Layer  Conformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFC Drawings for Previous Layer Type_x000D_
+_x000D_
 </t>
   </si>
   <si>
-    <t>Each Layer shall be proof rolled with a superintendent present. Compliance with the proof rolling requirements shall be when an area withstands proof rolling without visible deformation or springing. _x000D_
-_x000D_
-The plant for use in proof roll to comply with the following requirements:	_x000D_
-(i) Static smooth steel wheeled rollers shall have a mass of not less than 12 tonnes and a load intensity under either the front or rear wheels of not less than 6 tonnes per metre width of wheel._x000D_
-		_x000D_
-(ii) Pneumatic tyred plant shall have a mass of not less than 20 tonne and shall have a ground contact pressure under either the front or rear wheels of not less than 450 kPa per tyre.  The area over which this ground contact pressure shall be applied shall not be less than 0.035 m2 per tyre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Inspection_x000D_
-_x000D_
-Test Roll as per 173.03_x000D_
+    <t>Confirm previous layer (prior to CTCR layer placemen) conforms to IFC drawing and specification requirements._x000D_
+_x000D_
+Check the previous  fill level/survey (e.g. fill, foundation . Subgrade, base course etc)  to ensure CTCR minimum  thickness requirements is achieved_x000D_
+_x000D_
+Enter: Previous Layer Lot number [Free text box]</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>This ITP_x000D_
+Previous Lot Number</t>
+  </si>
+  <si>
+    <t>Lot Size</t>
+  </si>
+  <si>
+    <t>VicRoads Spec.  Cl.306.03(b)</t>
+  </si>
+  <si>
+    <t>The maximum size for a single lot shall be considered a single layer of 4000m²_x000D_
+_x000D_
+A lot shall consist of a single layer of pavement material placed on the same day</t>
+  </si>
+  <si>
+    <t>Visual_x000D_
+Measure</t>
+  </si>
+  <si>
+    <t>Each lot</t>
+  </si>
+  <si>
+    <t>Signed ITP_x000D_
+_x000D_
+Attach: Lot Map</t>
+  </si>
+  <si>
+    <t>Survey Set-out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFC Drawings_x000D_
 _x000D_
 </t>
   </si>
   <si>
-    <t>Each Lot/Layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compaction and Moisture Content Testing </t>
-  </si>
-  <si>
-    <t>Table 204.131_x000D_
-Table 204.142_x000D_
-Section 173.04 (d)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compaction Requirement to be Scale B: Characteristic Density Ratio 98%. (6 tests per lot)_x000D_
-_x000D_
-Once three consecutive lots of like material have achieved the requirements in the first test, minimum testing frequency can be seek with the Superintendent agreement. _x000D_
-_x000D_
-Minimum Testing Frequency: Every second lot _x000D_
-_x000D_
-Lot size _x000D_
-Type A Material - the lesser of one day's production or 5000sqm_x000D_
-_x000D_
-Or _x000D_
-_x000D_
-Testing Small Areas_x000D_
-_x000D_
-For earthworks and pavement construction any lot which has a surface area less than 500 m2 may be treated as a small area. When testing a small area as a lot and where test requirements are based on characteristic values of density ratio and/or moisture ratio, acceptance of the lot shall be based on the mean values of 3 individual tests. In this case the lot will be accepted as far as compaction is concerned if the mean value of the individual tests exceeds by 2.0% or more the appropriate compaction scale requirement for the characteristic value of density ratio for a lot of six tests._x000D_
-Attach: Compaction CHAR(AMP) Moisture Content Test Results_x000D_
+    <t>Survey to set out works in accordance with IFC Drawings_x000D_
+ATTACH: Lot Map</t>
+  </si>
+  <si>
+    <t>Measure_x000D_
+Visual</t>
+  </si>
+  <si>
+    <t>Each lot prior to commencement</t>
+  </si>
+  <si>
+    <t>Surveyor_x000D_
+_x000D_
+SE/PE/SPE</t>
+  </si>
+  <si>
+    <t>This ITP_x000D_
+Attach: Lot Map</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review delivery dockets to ensure all information required as per 306.07 (b) is recorded and meets the specificaiton requirements._x000D_
+_x000D_
+_x000D_
+Attach: Delivery Dockets_x000D_
 </t>
   </si>
   <si>
-    <t>Review Document</t>
-  </si>
-  <si>
-    <t>Test the first 3 lots. Reduced min. frequency every 2nd lot of like material and work</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Post Compaction Material Property Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 204,041_x000D_
-Table 204.141_x000D_
-Section 204.14 (a)_x000D_
+    <t>This ITP_x000D_
+_x000D_
+Attach: Delivery Dockets_x000D_
+Attach: pour records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placement - Transverse Joints </t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.08(a)(c)</t>
+  </si>
+  <si>
+    <t>Material should be spread to minimise number of joints_x000D_
+_x000D_
+In any layer, transverse joints in adjoining paver runs shall be offset by not less than 2 m_x000D_
+_x000D_
+Transverse joints offset from one layer to next by not less than 2 metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placement - Longitudinal Joints </t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.08(a)(d)(e)</t>
+  </si>
+  <si>
+    <t>Material should be spread to minimise number of joints_x000D_
+_x000D_
+Longitudinal joints offset from one layer to next by not less than 150mm_x000D_
+_x000D_
+Longitudinal joints to be located within 300mm from planned traffic lane lines or within 300 mm of the centre of a traffic lane.</t>
+  </si>
+  <si>
+    <t>Placement - Layer Thickness</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.11</t>
+  </si>
+  <si>
+    <t>Compacted layer thickness should be not less than 100mm and not greater than 180mm.</t>
+  </si>
+  <si>
+    <t>Placement - Working Time</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.07_x000D_
+_x000D_
+VicRoads Spec. Cl.306.09_x000D_
+Table 306.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+_x000D_
+Working Shall Not be more than specified for each binder:_x000D_
+Rapid Setting (GP) - 2hrs (Oct-Apr) 3hrs (May-Sept)_x000D_
+Medium Setting (GB) - 3hrs (Oct-Apr) 5hrs (May-Sept)_x000D_
+Slow Setting (Slag) - 8hrs (Oct-Apr) 12hrs (May-Sept)_x000D_
+If the ambient temperature within the period from October to April on any day is less than 15°C, the May to September maximum allowable working times may be applied._x000D_
+_x000D_
+Attach: Delivery Dockets_x000D_
+Attach: Pour record_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Material Properties:_x000D_
-CBR ≥ 8% and Swell ≤ 1.5%_x000D_
-Max Permeability = 5E-9 m/s_x000D_
-Grading: 75.0mm 100%_x000D_
-                4.75mm 40-80%_x000D_
-                0.075mm 10-40%_x000D_
-Max. PI x%Passing 0.425mm = 1000 , PI = 6 to 25_x000D_
+    <t>Measure_x000D_
+Document Review</t>
+  </si>
+  <si>
+    <t>This ITP_x000D_
+Delivery Dockets_x000D_
+_x000D_
+Attach: pour records</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>_x000D_
+VicRoads Spec. Cl.306.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Except for the purpose of curing, no water shall be added to the cementitious treated material._x000D_
+_x000D_
+Water shall be clean and substantially free from detrimental impurities such as oils, salts, acids, alkalis and vegetable substances.  </t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Cementious binder content CHAR(AMP) UCS requirements</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. 815.10</t>
+  </si>
+  <si>
+    <t>Contractor shall carry out the UCS Testing  to determine the cemenetious binder meet the minimum 7days_x000D_
+Attach: test results</t>
+  </si>
+  <si>
+    <t>Test report</t>
+  </si>
+  <si>
+    <t>Compaction - Modified Compactive Effort</t>
+  </si>
+  <si>
+    <t>_x000D_
+VicRoads Spec. Cl.306.05_x000D_
+_x000D_
+VicRoads Spec. Cl.306.09(a)(b)</t>
+  </si>
+  <si>
+    <t>Moisture content at time of spreading and compactions is within +0.5% and –1.0% of optimum moisture content_x000D_
 _x000D_
 Scale B:_x000D_
-1 Lot Test to determine: Assigned CBR and swell, Grading CHAR(AMP) Max. Particle Dimension, PI and PIx%Passing 0.425mm and permeability._x000D_
-Where the first lot passes, no further testing required except where changes to the physical properties of the material are observed._x000D_
-_x000D_
-Attach: Post Compaction Material Property Test Results_x000D_
+No. of tests per lot shall be 3_x000D_
+Mean density ratio &gt; 96%</t>
+  </si>
+  <si>
+    <t>Attach:_x000D_
+Test Report</t>
+  </si>
+  <si>
+    <t>Test Rolling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+VicRoads Spec. Cl.306.10_x000D_
+Table _x000D_
+306.091_x000D_
 </t>
   </si>
   <si>
-    <t>Each Lot/Reduced Testing Frequency_x000D_
-_x000D_
-Refer to Section 204</t>
-  </si>
-  <si>
-    <t>Survey Conformance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 204.031 _x000D_
+    <t>Test rolling to be carried out in accordance with the requirements of Section 173 on the cementitious treated pavement subbase layer within the maximum allowable working time for the relevant binder and time of year as specified in Table 306.091.</t>
+  </si>
+  <si>
+    <t>SE, NA</t>
+  </si>
+  <si>
+    <t>Curing</t>
+  </si>
+  <si>
+    <t>Vicroads Spec 306.11</t>
+  </si>
+  <si>
+    <t>Pavement Design Modulus of 500 MPa:_x000D_
+The surface of each compacted layer shall be kept moist for a period of seven days unless covered at an earlier stage with the succeeding layer or with an approved curing membrane</t>
+  </si>
+  <si>
+    <t>SE/PE</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>Pavement Design Modulus of 500 MPa:_x000D_
+Construction or other traffic shall not use a compacted layer within 24 hours of placement without the approval of the Superintendent.</t>
+  </si>
+  <si>
+    <t>Surface level</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.03(c)</t>
+  </si>
+  <si>
+    <t>No point on the surface of the cementitious subbase layer shall vary by more than 8 mm from a 3 metre straight edge placed in any direction. Water shall not pond on the surface of the cementitious treated subbase</t>
+  </si>
+  <si>
+    <t>Conformity with drawings-Width and alignment</t>
+  </si>
+  <si>
+    <t>VicRoads Spec. Cl.306.03(b)_x000D_
+Table 306.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width and Alignment: The width of pavement measured on each side of the centreline or design line shall not deviate by more than 50 mm from the designed offset when measured at a right angle._x000D_
 </t>
   </si>
   <si>
-    <t>Level tolerances (Scale B):_x000D_
-Range Mean = +5, -25mm_x000D_
-Max Standard Deviation = 15 mm _x000D_
-40 measurements per lot_x000D_
-_x000D_
-Attach: Survey Conformance Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Document </t>
-  </si>
-  <si>
-    <t>Top of Type A</t>
-  </si>
-  <si>
-    <t>SE/PE/ Surveyor</t>
-  </si>
-  <si>
-    <t>MRPA Quality Management Plan</t>
+    <t>Attach: Survey Report</t>
+  </si>
+  <si>
+    <t>Conformity with drawings-Survey Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000D_
+Scale B:_x000D_
+Measurements per Lot: 40_x000D_
+Subgrade:_x000D_
+- Mean value of all level readings to range between +5/-25_x000D_
+- Standard deviation of all level readings to be less than or equal to 15_x000D_
+Subbase:_x000D_
+- Mean value of all level readings to range between +6/-12_x000D_
+- Standard deviation of all level readings to be less than or equal to 13_x000D_
+</t>
+  </si>
+  <si>
+    <t>Each Lot_x000D_
+_x000D_
+Scale B: 40 points per lot</t>
+  </si>
+  <si>
+    <t>Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed in Team Binder.</t>
+  </si>
+  <si>
+    <t>PE/SPE</t>
+  </si>
+  <si>
+    <t>Date Completed:</t>
   </si>
 </sst>
 </file>
@@ -659,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -702,56 +855,60 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v>2.1 Material Conformance</v>
+        <v>2.1 Submit Mix Design - Cement treated crushed rock (CTCR) mix</v>
       </c>
       <c r="L2" t="str">
         <f>"REFERENCE: "&amp;C2</f>
-        <v>REFERENCE: IFC Drawings (MRP-089-C-ACD-DRG-30-BFD-CBR-2848)_x000D_
-_x000D_
-Section 204.04 b)_x000D_
-Table 204.041</v>
+        <v>REFERENCE: VicRoads Spec. Cl. 815.05_x000D_
+_x000D_
+VicRoads Spec. Cl.306.04_x000D_
+_x000D_
+VicRoads Spec. TN 107_x000D_
+_x000D_
+VicRoads Spec. CoC 500.02_x000D_
+_x000D_
+IFC Drawings</v>
       </c>
       <c r="M2" t="str">
         <f>"ACCEPTANCE CRITERIA: "&amp;D2</f>
-        <v>ACCEPTANCE CRITERIA: CBR ≥ 8% and Swell ≤ 1.5%_x000D_
-Max Permeability = 5E-9 m/s_x000D_
-Grading: 75.0mm 100%_x000D_
-                4.75mm 40-80%_x000D_
-                0.075mm 10-40%_x000D_
-Max. PI x%Passing 0.425mm = 1000 , PI = 6 to 25_x000D_
-_x000D_
-Reference: TeamBinder Material Approval Ref No.</v>
+        <v>ACCEPTANCE CRITERIA: Cement treated crushed rock mixes for use on specified works can be registered in accordance with VicRoads Code of Practice for Registration of Crushed Rock Mix Designs as listed in Section 175._x000D_
+_x000D_
+CTCR shall comply with Section 815 CHAR(AMP) 821, TN107 CHAR(AMP) CoC 500.02_x000D_
+_x000D_
+Enter: Teambinder Material Approval number_x000D_
+[free text box]</v>
       </c>
       <c r="N2" t="str">
         <f>"METHOD: "&amp;E2</f>
@@ -759,7 +916,7 @@
       </c>
       <c r="O2" t="str">
         <f>"FREQUENCY: "&amp;F2</f>
-        <v>FREQUENCY: Once, for each material type</v>
+        <v xml:space="preserve">FREQUENCY: Once, for each mix design, 4 weeks prior to placement of concrete </v>
       </c>
       <c r="P2" t="str">
         <f>"CATEGORY: "&amp;G2</f>
@@ -767,137 +924,141 @@
       </c>
       <c r="Q2" t="str">
         <f>"RESPONSIBILITY: "&amp;H2</f>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: SE CHAR(AMP) Nominated Authority</v>
       </c>
       <c r="R2" t="str">
         <f>"VERIFYING DOCUMENTS: "&amp;I2</f>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: Issue to TeamBinder: VicRoads registered cement treated crushed rock mix</v>
+      </c>
+      <c r="S2" t="s">
+        <v>95</v>
       </c>
       <c r="T2" t="str" cm="1">
-        <f t="array" ref="T2:T81">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:R40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>2.1 Material Conformance</v>
+        <f t="array" ref="T2:T190">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,K2:S40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>2.1 Submit Mix Design - Cement treated crushed rock (CTCR) mix</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K11" si="0">A3&amp;" "&amp;B3</f>
-        <v>3.1 Pre-Commencement of Fill Works</v>
+        <f t="shared" ref="K3:K22" si="0">A3&amp;" "&amp;B3</f>
+        <v>2.2 Hold Point - Alternate Binder (if applicable)</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L11" si="1">"REFERENCE: "&amp;C3</f>
-        <v>REFERENCE: Section 204.10 (b)</v>
+        <f t="shared" ref="L3:L22" si="1">"REFERENCE: "&amp;C3</f>
+        <v>REFERENCE: VicRoads Spec. Cl.306.09(a)</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M11" si="2">"ACCEPTANCE CRITERIA: "&amp;D3</f>
-        <v>ACCEPTANCE CRITERIA: Areas upon which fills are to be constructed shall be prepared for test rolling by the Contractor._x000D_
-The Contractor shall not commence placing any fill on the prepared areas until the area has been reviewed by the Nominated Authority._x000D_
-No fill shall be placed against or within 3 m of a structure until the foundation for the fill has been reviewed by the Nominated Authority_x000D_
-_x000D_
-Reference: Subgrade Preparation / Previous Layer Lot Number_x000D_
-Attach: Lot Maps</v>
+        <f t="shared" ref="M3:M22" si="2">"ACCEPTANCE CRITERIA: "&amp;D3</f>
+        <v>ACCEPTANCE CRITERIA: If a binder other than those listed in Table 306.091 is proposed for use, laboratory test results must be produced to show that binder satisfies the required working time and strength determined in accordance with the VicRoads Test Method._x000D_
+_x000D_
+Enter: Teambinder Material Approval number_x000D_
+[free text box]</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N11" si="3">"METHOD: "&amp;E3</f>
-        <v>METHOD: Visual Inspection</v>
+        <f t="shared" ref="N3:N22" si="3">"METHOD: "&amp;E3</f>
+        <v>METHOD: Document Review</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O11" si="4">"FREQUENCY: "&amp;F3</f>
-        <v>FREQUENCY: Prior to commencement of fill works</v>
+        <f t="shared" ref="O3:O22" si="4">"FREQUENCY: "&amp;F3</f>
+        <v>FREQUENCY: Once per material type, prior to commencement of works</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P11" si="5">"CATEGORY: "&amp;G3</f>
+        <f t="shared" ref="P3:P22" si="5">"CATEGORY: "&amp;G3</f>
         <v>CATEGORY: HP</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q11" si="6">"RESPONSIBILITY: "&amp;H3</f>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <f t="shared" ref="Q3:Q22" si="6">"RESPONSIBILITY: "&amp;H3</f>
+        <v>RESPONSIBILITY: SE CHAR(AMP) Nominated Authority</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R11" si="7">"VERIFYING DOCUMENTS: "&amp;I3</f>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <f t="shared" ref="R3:R22" si="7">"VERIFYING DOCUMENTS: "&amp;I3</f>
+        <v>VERIFYING DOCUMENTS: Issue to TeamBinder: Test Records</v>
+      </c>
+      <c r="S3" t="s">
+        <v>95</v>
       </c>
       <c r="T3" t="str">
-        <v>REFERENCE: IFC Drawings (MRP-089-C-ACD-DRG-30-BFD-CBR-2848)
-Section 204.04 b)
-Table 204.041</v>
+        <v>REFERENCE: VicRoads Spec. Cl. 815.05
+VicRoads Spec. Cl.306.04
+VicRoads Spec. TN 107
+VicRoads Spec. CoC 500.02
+IFC Drawings</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>4.1 Survey Set Out</v>
+        <v>3.1 Check that current revision drawings are being used</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">REFERENCE: IFC Drawings </v>
+        <v>REFERENCE: Project Drawings / Drawing Register</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Set out pegs in place and clearly mark out limits of works._x000D_
-_x000D_
-Attach: Lot Maps</v>
+        <v>ACCEPTANCE CRITERIA: Issued For Construction (IFC) and latest available revision used</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Visual Inspection</v>
+        <v>METHOD: Document review</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Prior to commencement of fill works</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="5"/>
@@ -905,65 +1066,71 @@
       </c>
       <c r="Q4" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
+        <v>RESPONSIBILITY: SE / Site Foreman</v>
       </c>
       <c r="R4" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S4" t="s">
+        <v>95</v>
       </c>
       <c r="T4" t="str">
-        <v>ACCEPTANCE CRITERIA: CBR ≥ 8% and Swell ≤ 1.5%
-Max Permeability = 5E-9 m/s
-Grading: 75.0mm 100%
-                4.75mm 40-80%
-                0.075mm 10-40%
-Max. PI x%Passing 0.425mm = 1000 , PI = 6 to 25
-Reference: TeamBinder Material Approval Ref No.</v>
+        <v>ACCEPTANCE CRITERIA: Cement treated crushed rock mixes for use on specified works can be registered in accordance with VicRoads Code of Practice for Registration of Crushed Rock Mix Designs as listed in Section 175.
+CTCR shall comply with Section 815 CHAR(AMP) 821, TN107 CHAR(AMP) CoC 500.02
+Enter: Teambinder Material Approval number
+[free text box]</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>5.1 Placing of Fill</v>
+        <v>3.2 Previous Layer  Conformance</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: Section 204.10 (d)</v>
+        <v xml:space="preserve">REFERENCE: IFC Drawings for Previous Layer Type_x000D_
+_x000D_
+</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Type A material shall be spread and compacted in layers not exceeding a compacted thickness of 200 mm.</v>
+        <v>ACCEPTANCE CRITERIA: Confirm previous layer (prior to CTCR layer placemen) conforms to IFC drawing and specification requirements._x000D_
+_x000D_
+Check the previous  fill level/survey (e.g. fill, foundation . Subgrade, base course etc)  to ensure CTCR minimum  thickness requirements is achieved_x000D_
+_x000D_
+Enter: Previous Layer Lot number [Free text box]</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Visual Inspection</v>
+        <v>METHOD: Document Review</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="4"/>
@@ -971,15 +1138,19 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: WP</v>
+        <v>CATEGORY: HP*</v>
       </c>
       <c r="Q5" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: PE/SE/Site Supervisor</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: This ITP_x000D_
+Previous Lot Number</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
       </c>
       <c r="T5" t="str">
         <v>METHOD: Document Review</v>
@@ -987,140 +1158,145 @@
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>5.2 Fill at Structures (where applicable)</v>
+        <v>4.1 Lot Size</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: Section 204.11 (b)</v>
+        <v>REFERENCE: VicRoads Spec.  Cl.306.03(b)</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: No Fill shall be placed against or within 3m of a structure until the foundation for the fill has been reviewed by the Superintendent_x000D_
-_x000D_
-In addition to the placement of Type A material at bridge abutments as structural material, embankment material or backfilling within 3 metres of retaining walls, wing walls, all crown units, and culverts with an opening height greater than 1200 mm, shall be material of at least Type A material quality.</v>
+        <v>ACCEPTANCE CRITERIA: The maximum size for a single lot shall be considered a single layer of 4000m²_x000D_
+_x000D_
+A lot shall consist of a single layer of pavement material placed on the same day</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Site Inspection</v>
+        <v>METHOD: Visual_x000D_
+Measure</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each Lot</v>
+        <v>FREQUENCY: Each lot</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP*</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: PE/SE/Site Supervisor</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: Signed ITP_x000D_
+_x000D_
+Attach: Lot Map</v>
+      </c>
+      <c r="S6" t="s">
+        <v>95</v>
       </c>
       <c r="T6" t="str">
-        <v>FREQUENCY: Once, for each material type</v>
+        <v>FREQUENCY: Once, for each mix design, 4 weeks prior to placement of concrete</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>5.3 Test Roll / Proof Roll</v>
+        <v>4.2 Survey Set-out</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">REFERENCE: Section 173.03_x000D_
-Section 204.12_x000D_
+        <v xml:space="preserve">REFERENCE: IFC Drawings_x000D_
+_x000D_
 </v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Each Layer shall be proof rolled with a superintendent present. Compliance with the proof rolling requirements shall be when an area withstands proof rolling without visible deformation or springing. _x000D_
-_x000D_
-The plant for use in proof roll to comply with the following requirements:	_x000D_
-(i) Static smooth steel wheeled rollers shall have a mass of not less than 12 tonnes and a load intensity under either the front or rear wheels of not less than 6 tonnes per metre width of wheel._x000D_
-		_x000D_
-(ii) Pneumatic tyred plant shall have a mass of not less than 20 tonne and shall have a ground contact pressure under either the front or rear wheels of not less than 450 kPa per tyre.  The area over which this ground contact pressure shall be applied shall not be less than 0.035 m2 per tyre.</v>
+        <v>ACCEPTANCE CRITERIA: Survey to set out works in accordance with IFC Drawings_x000D_
+ATTACH: Lot Map</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">METHOD: Visual Inspection_x000D_
-_x000D_
-Test Roll as per 173.03_x000D_
-_x000D_
-</v>
+        <v>METHOD: Measure_x000D_
+Visual</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each Lot/Layer</v>
+        <v>FREQUENCY: Each lot prior to commencement</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: Surveyor_x000D_
+_x000D_
+SE/PE/SPE</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: This ITP_x000D_
+Attach: Lot Map</v>
+      </c>
+      <c r="S7" t="s">
+        <v>95</v>
       </c>
       <c r="T7" t="str">
         <v>CATEGORY: HP</v>
@@ -1128,68 +1304,55 @@
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">5.4 Compaction and Moisture Content Testing </v>
+        <v>5.1 Delivery</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: Table 204.131_x000D_
-Table 204.142_x000D_
-Section 173.04 (d)</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.07</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">ACCEPTANCE CRITERIA: Compaction Requirement to be Scale B: Characteristic Density Ratio 98%. (6 tests per lot)_x000D_
-_x000D_
-Once three consecutive lots of like material have achieved the requirements in the first test, minimum testing frequency can be seek with the Superintendent agreement. _x000D_
-_x000D_
-Minimum Testing Frequency: Every second lot _x000D_
-_x000D_
-Lot size _x000D_
-Type A Material - the lesser of one day's production or 5000sqm_x000D_
-_x000D_
-Or _x000D_
-_x000D_
-Testing Small Areas_x000D_
-_x000D_
-For earthworks and pavement construction any lot which has a surface area less than 500 m2 may be treated as a small area. When testing a small area as a lot and where test requirements are based on characteristic values of density ratio and/or moisture ratio, acceptance of the lot shall be based on the mean values of 3 individual tests. In this case the lot will be accepted as far as compaction is concerned if the mean value of the individual tests exceeds by 2.0% or more the appropriate compaction scale requirement for the characteristic value of density ratio for a lot of six tests._x000D_
-Attach: Compaction CHAR(AMP) Moisture Content Test Results_x000D_
+        <v xml:space="preserve">ACCEPTANCE CRITERIA: Review delivery dockets to ensure all information required as per 306.07 (b) is recorded and meets the specificaiton requirements._x000D_
+_x000D_
+_x000D_
+Attach: Delivery Dockets_x000D_
 </v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Review Document</v>
+        <v>METHOD: Document Review</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Test the first 3 lots. Reduced min. frequency every 2nd lot of like material and work</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="5"/>
@@ -1197,81 +1360,74 @@
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: This ITP_x000D_
+_x000D_
+Attach: Delivery Dockets_x000D_
+Attach: pour records</v>
+      </c>
+      <c r="S8" t="s">
+        <v>95</v>
       </c>
       <c r="T8" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>RESPONSIBILITY: SE CHAR(AMP) Nominated Authority</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>5.5 Post Compaction Material Property Testing</v>
+        <v xml:space="preserve">5.2 Placement - Transverse Joints </v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">REFERENCE: Table 204,041_x000D_
-Table 204.141_x000D_
-Section 204.14 (a)_x000D_
-</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.08(a)(c)</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">ACCEPTANCE CRITERIA: Material Properties:_x000D_
-CBR ≥ 8% and Swell ≤ 1.5%_x000D_
-Max Permeability = 5E-9 m/s_x000D_
-Grading: 75.0mm 100%_x000D_
-                4.75mm 40-80%_x000D_
-                0.075mm 10-40%_x000D_
-Max. PI x%Passing 0.425mm = 1000 , PI = 6 to 25_x000D_
-_x000D_
-Scale B:_x000D_
-1 Lot Test to determine: Assigned CBR and swell, Grading CHAR(AMP) Max. Particle Dimension, PI and PIx%Passing 0.425mm and permeability._x000D_
-Where the first lot passes, no further testing required except where changes to the physical properties of the material are observed._x000D_
-_x000D_
-Attach: Post Compaction Material Property Test Results_x000D_
-</v>
+        <v>ACCEPTANCE CRITERIA: Material should be spread to minimise number of joints_x000D_
+_x000D_
+In any layer, transverse joints in adjoining paver runs shall be offset by not less than 2 m_x000D_
+_x000D_
+Transverse joints offset from one layer to next by not less than 2 metres</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Review Document</v>
+        <v>METHOD: Visual_x000D_
+Measure</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Each Lot/Reduced Testing Frequency_x000D_
-_x000D_
-Refer to Section 204</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="5"/>
@@ -1279,69 +1435,71 @@
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S9" t="s">
+        <v>95</v>
       </c>
       <c r="T9" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>VERIFYING DOCUMENTS: Issue to TeamBinder: VicRoads registered cement treated crushed rock mix</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>6.1 Survey Conformance</v>
+        <v xml:space="preserve">5.3 Placement - Longitudinal Joints </v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">REFERENCE: Table 204.031 _x000D_
-</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.08(a)(d)(e)</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Level tolerances (Scale B):_x000D_
-Range Mean = +5, -25mm_x000D_
-Max Standard Deviation = 15 mm _x000D_
-40 measurements per lot_x000D_
-_x000D_
-Attach: Survey Conformance Report</v>
+        <v>ACCEPTANCE CRITERIA: Material should be spread to minimise number of joints_x000D_
+_x000D_
+Longitudinal joints offset from one layer to next by not less than 150mm_x000D_
+_x000D_
+Longitudinal joints to be located within 300mm from planned traffic lane lines or within 300 mm of the centre of a traffic lane.</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">METHOD: Review Document </v>
+        <v>METHOD: Visual_x000D_
+Measure</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Top of Type A</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="5"/>
@@ -1349,493 +1507,1770 @@
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE/PE/ Surveyor</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S10" t="s">
+        <v>95</v>
       </c>
       <c r="T10" t="str">
-        <v>3.1 Pre-Commencement of Fill Works</v>
+        <v>Date Completed:</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>6.2 Non-conformance Report (NCR) Closure</v>
+        <v>5.4 Placement - Layer Thickness</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>REFERENCE: MRPA Quality Management Plan</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.11</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="2"/>
-        <v>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed.</v>
+        <v>ACCEPTANCE CRITERIA: Compacted layer thickness should be not less than 100mm and not greater than 180mm.</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
-        <v>METHOD: Document Review</v>
+        <v>METHOD: Visual_x000D_
+Measure</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="4"/>
-        <v>FREQUENCY: Once, prior to closure of this lot / element / Work area</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="5"/>
-        <v>CATEGORY: HP*</v>
+        <v>CATEGORY: IP</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="6"/>
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="7"/>
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S11" t="s">
+        <v>95</v>
       </c>
       <c r="T11" t="str">
-        <v>REFERENCE: Section 204.10 (b)</v>
+        <v>2.2 Hold Point - Alternate Binder (if applicable)</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12">
+        <v>5.5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>5.5 Placement - Working Time</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: VicRoads Spec. Cl.306.07_x000D_
+_x000D_
+VicRoads Spec. Cl.306.09_x000D_
+Table 306.091</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ACCEPTANCE CRITERIA: _x000D_
+_x000D_
+Working Shall Not be more than specified for each binder:_x000D_
+Rapid Setting (GP) - 2hrs (Oct-Apr) 3hrs (May-Sept)_x000D_
+Medium Setting (GB) - 3hrs (Oct-Apr) 5hrs (May-Sept)_x000D_
+Slow Setting (Slag) - 8hrs (Oct-Apr) 12hrs (May-Sept)_x000D_
+If the ambient temperature within the period from October to April on any day is less than 15°C, the May to September maximum allowable working times may be applied._x000D_
+_x000D_
+Attach: Delivery Dockets_x000D_
+Attach: Pour record_x000D_
+</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Measure_x000D_
+Document Review</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: This ITP_x000D_
+Delivery Dockets_x000D_
+_x000D_
+Attach: pour records</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
+      </c>
       <c r="T12" t="str">
-        <v>ACCEPTANCE CRITERIA: Areas upon which fills are to be constructed shall be prepared for test rolling by the Contractor.
-The Contractor shall not commence placing any fill on the prepared areas until the area has been reviewed by the Nominated Authority.
-No fill shall be placed against or within 3 m of a structure until the foundation for the fill has been reviewed by the Nominated Authority
-Reference: Subgrade Preparation / Previous Layer Lot Number
-Attach: Lot Maps</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.09(a)</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13">
+        <v>5.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>5.6 Water</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: _x000D_
+VicRoads Spec. Cl.306.06</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ACCEPTANCE CRITERIA: Except for the purpose of curing, no water shall be added to the cementitious treated material._x000D_
+_x000D_
+Water shall be clean and substantially free from detrimental impurities such as oils, salts, acids, alkalis and vegetable substances.  </v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Visual</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S13" t="s">
+        <v>95</v>
+      </c>
       <c r="T13" t="str">
-        <v>METHOD: Visual Inspection</v>
+        <v>ACCEPTANCE CRITERIA: If a binder other than those listed in Table 306.091 is proposed for use, laboratory test results must be produced to show that binder satisfies the required working time and strength determined in accordance with the VicRoads Test Method.
+Enter: Teambinder Material Approval number
+[free text box]</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14">
+        <v>5.7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>5.7 Cementious binder content CHAR(AMP) UCS requirements</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: VicRoads Spec. 815.10</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Contractor shall carry out the UCS Testing  to determine the cemenetious binder meet the minimum 7days_x000D_
+Attach: test results</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Document Review</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: Test report</v>
+      </c>
+      <c r="S14" t="s">
+        <v>95</v>
+      </c>
       <c r="T14" t="str">
-        <v>FREQUENCY: Prior to commencement of fill works</v>
+        <v>METHOD: Document Review</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15">
+        <v>5.8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>5.8 Compaction - Modified Compactive Effort</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: _x000D_
+VicRoads Spec. Cl.306.05_x000D_
+_x000D_
+VicRoads Spec. Cl.306.09(a)(b)</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Moisture content at time of spreading and compactions is within +0.5% and –1.0% of optimum moisture content_x000D_
+_x000D_
+Scale B:_x000D_
+No. of tests per lot shall be 3_x000D_
+Mean density ratio &gt; 96%</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Document review</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: Attach:_x000D_
+Test Report</v>
+      </c>
+      <c r="S15" t="s">
+        <v>95</v>
+      </c>
       <c r="T15" t="str">
+        <v>FREQUENCY: Once per material type, prior to commencement of works</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>5.9 Test Rolling</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">REFERENCE: _x000D_
+VicRoads Spec. Cl.306.10_x000D_
+Table _x000D_
+306.091_x000D_
+</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Test rolling to be carried out in accordance with the requirements of Section 173 on the cementitious treated pavement subbase layer within the maximum allowable working time for the relevant binder and time of year as specified in Table 306.091.</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Visual</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
         <v>CATEGORY: HP</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE, NA</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S16" t="s">
+        <v>95</v>
+      </c>
       <c r="T16" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+        <v>CATEGORY: HP</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>6.1 Curing</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: Vicroads Spec 306.11</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Pavement Design Modulus of 500 MPa:_x000D_
+The surface of each compacted layer shall be kept moist for a period of seven days unless covered at an earlier stage with the succeeding layer or with an approved curing membrane</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Visual</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S17" t="s">
+        <v>95</v>
+      </c>
       <c r="T17" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="I18" s="1"/>
+        <v>RESPONSIBILITY: SE CHAR(AMP) Nominated Authority</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>6.2 Protection</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: Vicroads Spec 306.11</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Pavement Design Modulus of 500 MPa:_x000D_
+Construction or other traffic shall not use a compacted layer within 24 hours of placement without the approval of the Superintendent.</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Visual</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S18" t="s">
+        <v>95</v>
+      </c>
       <c r="T18" t="str">
-        <v>4.1 Survey Set Out</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+        <v>VERIFYING DOCUMENTS: Issue to TeamBinder: Test Records</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6.3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>6.3 Surface level</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: VicRoads Spec. Cl.306.03(c)</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: No point on the surface of the cementitious subbase layer shall vary by more than 8 mm from a 3 metre straight edge placed in any direction. Water shall not pond on the surface of the cementitious treated subbase</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Document review</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S19" t="s">
+        <v>95</v>
+      </c>
       <c r="T19" t="str">
-        <v>REFERENCE: IFC Drawings</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6.4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>6.4 Conformity with drawings-Width and alignment</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: VicRoads Spec. Cl.306.03(b)_x000D_
+Table 306.032</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ACCEPTANCE CRITERIA: Width and Alignment: The width of pavement measured on each side of the centreline or design line shall not deviate by more than 50 mm from the designed offset when measured at a right angle._x000D_
+</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Document Review</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: Attach: Survey Report</v>
+      </c>
+      <c r="S20" t="s">
+        <v>95</v>
+      </c>
       <c r="T20" t="str">
-        <v>ACCEPTANCE CRITERIA: Set out pegs in place and clearly mark out limits of works.
-Attach: Lot Maps</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.1 Check that current revision drawings are being used</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6.5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>6.5 Conformity with drawings-Survey Level</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: VicRoads Spec. Cl.306.03(b)_x000D_
+Table 306.032</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">ACCEPTANCE CRITERIA: _x000D_
+Scale B:_x000D_
+Measurements per Lot: 40_x000D_
+Subgrade:_x000D_
+- Mean value of all level readings to range between +5/-25_x000D_
+- Standard deviation of all level readings to be less than or equal to 15_x000D_
+Subbase:_x000D_
+- Mean value of all level readings to range between +6/-12_x000D_
+- Standard deviation of all level readings to be less than or equal to 13_x000D_
+</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Document Review</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Each Lot_x000D_
+_x000D_
+Scale B: 40 points per lot</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: IP</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: Attach: Survey Report</v>
+      </c>
+      <c r="S21" t="s">
+        <v>95</v>
+      </c>
       <c r="T21" t="str">
-        <v>METHOD: Visual Inspection</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>REFERENCE: Project Drawings / Drawing Register</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6.6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>6.6 Non-conformance Report (NCR) Closure</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>REFERENCE: MRPA Quality Management Plan</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed in Team Binder.</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>METHOD: Document Review</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="4"/>
+        <v>FREQUENCY: Once, prior to closure of this lot / element / Work area</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>CATEGORY: HP*</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>RESPONSIBILITY: PE/SPE</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="7"/>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+      <c r="S22" t="s">
+        <v>95</v>
+      </c>
       <c r="T22" t="str">
-        <v>FREQUENCY: Prior to commencement of fill works</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ACCEPTANCE CRITERIA: Issued For Construction (IFC) and latest available revision used</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T23" t="str">
+        <v>METHOD: Document review</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T24" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T25" t="str">
         <v>CATEGORY: HP*</v>
       </c>
     </row>
-    <row r="24" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T24" t="str">
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T25" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T26" t="str">
-        <v>5.1 Placing of Fill</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>RESPONSIBILITY: SE / Site Foreman</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T27" t="str">
-        <v>REFERENCE: Section 204.10 (d)</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T28" t="str">
-        <v>ACCEPTANCE CRITERIA: Type A material shall be spread and compacted in layers not exceeding a compacted thickness of 200 mm.</v>
-      </c>
-    </row>
-    <row r="29" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T29" t="str">
-        <v>METHOD: Visual Inspection</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.2 Previous Layer  Conformance</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T30" t="str">
-        <v>FREQUENCY: Each Lot</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>REFERENCE: IFC Drawings for Previous Layer Type</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" t="str">
-        <v>CATEGORY: WP</v>
-      </c>
-    </row>
-    <row r="32" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ACCEPTANCE CRITERIA: Confirm previous layer (prior to CTCR layer placemen) conforms to IFC drawing and specification requirements.
+Check the previous  fill level/survey (e.g. fill, foundation . Subgrade, base course etc)  to ensure CTCR minimum  thickness requirements is achieved
+Enter: Previous Layer Lot number [Free text box]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T32" t="str">
-        <v>RESPONSIBILITY: PE/SE/Site Supervisor</v>
+        <v>METHOD: Document Review</v>
       </c>
     </row>
     <row r="33" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T33" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
     </row>
     <row r="34" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T34" t="str">
-        <v>5.2 Fill at Structures (where applicable)</v>
+        <v>CATEGORY: HP*</v>
       </c>
     </row>
     <row r="35" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T35" t="str">
-        <v>REFERENCE: Section 204.11 (b)</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
     </row>
     <row r="36" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T36" t="str">
-        <v>ACCEPTANCE CRITERIA: No Fill shall be placed against or within 3m of a structure until the foundation for the fill has been reviewed by the Superintendent
-In addition to the placement of Type A material at bridge abutments as structural material, embankment material or backfilling within 3 metres of retaining walls, wing walls, all crown units, and culverts with an opening height greater than 1200 mm, shall be material of at least Type A material quality.</v>
+        <v>VERIFYING DOCUMENTS: This ITP
+Previous Lot Number</v>
       </c>
     </row>
     <row r="37" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T37" t="str">
-        <v>METHOD: Site Inspection</v>
+        <v>Date Completed:</v>
       </c>
     </row>
     <row r="38" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T38" t="str">
-        <v>FREQUENCY: Each Lot</v>
+        <v>4.1 Lot Size</v>
       </c>
     </row>
     <row r="39" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T39" t="str">
-        <v>CATEGORY: HP*</v>
+        <v>REFERENCE: VicRoads Spec.  Cl.306.03(b)</v>
       </c>
     </row>
     <row r="40" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T40" t="str">
-        <v>RESPONSIBILITY: PE/SE/Site Supervisor</v>
+        <v>ACCEPTANCE CRITERIA: The maximum size for a single lot shall be considered a single layer of 4000m²
+A lot shall consist of a single layer of pavement material placed on the same day</v>
       </c>
     </row>
     <row r="41" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T41" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>METHOD: Visual
+Measure</v>
       </c>
     </row>
     <row r="42" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T42" t="str">
-        <v>5.3 Test Roll / Proof Roll</v>
+        <v>FREQUENCY: Each lot</v>
       </c>
     </row>
     <row r="43" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T43" t="str">
-        <v>REFERENCE: Section 173.03
-Section 204.12</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="44" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T44" t="str">
-        <v>ACCEPTANCE CRITERIA: Each Layer shall be proof rolled with a superintendent present. Compliance with the proof rolling requirements shall be when an area withstands proof rolling without visible deformation or springing. 
-The plant for use in proof roll to comply with the following requirements:	
-(i) Static smooth steel wheeled rollers shall have a mass of not less than 12 tonnes and a load intensity under either the front or rear wheels of not less than 6 tonnes per metre width of wheel.
-(ii) Pneumatic tyred plant shall have a mass of not less than 20 tonne and shall have a ground contact pressure under either the front or rear wheels of not less than 450 kPa per tyre.  The area over which this ground contact pressure shall be applied shall not be less than 0.035 m2 per tyre.</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
     </row>
     <row r="45" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T45" t="str">
-        <v>METHOD: Visual Inspection
-Test Roll as per 173.03</v>
+        <v>VERIFYING DOCUMENTS: Signed ITP
+Attach: Lot Map</v>
       </c>
     </row>
     <row r="46" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T46" t="str">
-        <v>FREQUENCY: Each Lot/Layer</v>
+        <v>Date Completed:</v>
       </c>
     </row>
     <row r="47" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T47" t="str">
-        <v>CATEGORY: HP</v>
+        <v>4.2 Survey Set-out</v>
       </c>
     </row>
     <row r="48" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T48" t="str">
-        <v>RESPONSIBILITY: Nominated Authority</v>
+        <v>REFERENCE: IFC Drawings</v>
       </c>
     </row>
     <row r="49" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T49" t="str">
-        <v>VERIFYING DOCUMENTS: Conqa HP Release</v>
+        <v>ACCEPTANCE CRITERIA: Survey to set out works in accordance with IFC Drawings
+ATTACH: Lot Map</v>
       </c>
     </row>
     <row r="50" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T50" t="str">
-        <v>5.4 Compaction and Moisture Content Testing</v>
+        <v>METHOD: Measure
+Visual</v>
       </c>
     </row>
     <row r="51" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T51" t="str">
-        <v>REFERENCE: Table 204.131
-Table 204.142
-Section 173.04 (d)</v>
+        <v>FREQUENCY: Each lot prior to commencement</v>
       </c>
     </row>
     <row r="52" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T52" t="str">
-        <v>ACCEPTANCE CRITERIA: Compaction Requirement to be Scale B: Characteristic Density Ratio 98%. (6 tests per lot)
-Once three consecutive lots of like material have achieved the requirements in the first test, minimum testing frequency can be seek with the Superintendent agreement. 
-Minimum Testing Frequency: Every second lot 
-Lot size 
-Type A Material - the lesser of one day's production or 5000sqm
-Or 
-Testing Small Areas
-For earthworks and pavement construction any lot which has a surface area less than 500 m2 may be treated as a small area. When testing a small area as a lot and where test requirements are based on characteristic values of density ratio and/or moisture ratio, acceptance of the lot shall be based on the mean values of 3 individual tests. In this case the lot will be accepted as far as compaction is concerned if the mean value of the individual tests exceeds by 2.0% or more the appropriate compaction scale requirement for the characteristic value of density ratio for a lot of six tests.
-Attach: Compaction CHAR(AMP) Moisture Content Test Results</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="53" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T53" t="str">
-        <v>METHOD: Review Document</v>
+        <v>RESPONSIBILITY: Surveyor
+SE/PE/SPE</v>
       </c>
     </row>
     <row r="54" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T54" t="str">
-        <v>FREQUENCY: Test the first 3 lots. Reduced min. frequency every 2nd lot of like material and work</v>
+        <v>VERIFYING DOCUMENTS: This ITP
+Attach: Lot Map</v>
       </c>
     </row>
     <row r="55" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T55" t="str">
-        <v>CATEGORY: IP</v>
+        <v>Date Completed:</v>
       </c>
     </row>
     <row r="56" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T56" t="str">
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
+        <v>5.1 Delivery</v>
       </c>
     </row>
     <row r="57" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T57" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.07</v>
       </c>
     </row>
     <row r="58" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T58" t="str">
-        <v>5.5 Post Compaction Material Property Testing</v>
+        <v>ACCEPTANCE CRITERIA: Review delivery dockets to ensure all information required as per 306.07 (b) is recorded and meets the specificaiton requirements.
+Attach: Delivery Dockets</v>
       </c>
     </row>
     <row r="59" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T59" t="str">
-        <v>REFERENCE: Table 204,041
-Table 204.141
-Section 204.14 (a)</v>
+        <v>METHOD: Document Review</v>
       </c>
     </row>
     <row r="60" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T60" t="str">
-        <v>ACCEPTANCE CRITERIA: Material Properties:
-CBR ≥ 8% and Swell ≤ 1.5%
-Max Permeability = 5E-9 m/s
-Grading: 75.0mm 100%
-                4.75mm 40-80%
-                0.075mm 10-40%
-Max. PI x%Passing 0.425mm = 1000 , PI = 6 to 25
-Scale B:
-1 Lot Test to determine: Assigned CBR and swell, Grading CHAR(AMP) Max. Particle Dimension, PI and PIx%Passing 0.425mm and permeability.
-Where the first lot passes, no further testing required except where changes to the physical properties of the material are observed.
-Attach: Post Compaction Material Property Test Results</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
     </row>
     <row r="61" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T61" t="str">
-        <v>METHOD: Review Document</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="62" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T62" t="str">
-        <v>FREQUENCY: Each Lot/Reduced Testing Frequency
-Refer to Section 204</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
     </row>
     <row r="63" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T63" t="str">
-        <v>CATEGORY: IP</v>
+        <v>VERIFYING DOCUMENTS: This ITP
+Attach: Delivery Dockets
+Attach: pour records</v>
       </c>
     </row>
     <row r="64" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T64" t="str">
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
+        <v>Date Completed:</v>
       </c>
     </row>
     <row r="65" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T65" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>5.2 Placement - Transverse Joints</v>
       </c>
     </row>
     <row r="66" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T66" t="str">
-        <v>6.1 Survey Conformance</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.08(a)(c)</v>
       </c>
     </row>
     <row r="67" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T67" t="str">
-        <v>REFERENCE: Table 204.031</v>
+        <v>ACCEPTANCE CRITERIA: Material should be spread to minimise number of joints
+In any layer, transverse joints in adjoining paver runs shall be offset by not less than 2 m
+Transverse joints offset from one layer to next by not less than 2 metres</v>
       </c>
     </row>
     <row r="68" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T68" t="str">
-        <v>ACCEPTANCE CRITERIA: Level tolerances (Scale B):
-Range Mean = +5, -25mm
-Max Standard Deviation = 15 mm 
-40 measurements per lot
-Attach: Survey Conformance Report</v>
+        <v>METHOD: Visual
+Measure</v>
       </c>
     </row>
     <row r="69" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T69" t="str">
-        <v>METHOD: Review Document</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
     </row>
     <row r="70" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T70" t="str">
-        <v>FREQUENCY: Top of Type A</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="71" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T71" t="str">
-        <v>CATEGORY: IP</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
     </row>
     <row r="72" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T72" t="str">
-        <v>RESPONSIBILITY: SE/PE/ Surveyor</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
       </c>
     </row>
     <row r="73" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T73" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>Date Completed:</v>
       </c>
     </row>
     <row r="74" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T74" t="str">
-        <v>6.2 Non-conformance Report (NCR) Closure</v>
+        <v>5.3 Placement - Longitudinal Joints</v>
       </c>
     </row>
     <row r="75" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T75" t="str">
-        <v>REFERENCE: MRPA Quality Management Plan</v>
+        <v>REFERENCE: VicRoads Spec. Cl.306.08(a)(d)(e)</v>
       </c>
     </row>
     <row r="76" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T76" t="str">
-        <v>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed.</v>
+        <v>ACCEPTANCE CRITERIA: Material should be spread to minimise number of joints
+Longitudinal joints offset from one layer to next by not less than 150mm
+Longitudinal joints to be located within 300mm from planned traffic lane lines or within 300 mm of the centre of a traffic lane.</v>
       </c>
     </row>
     <row r="77" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T77" t="str">
-        <v>METHOD: Document Review</v>
+        <v>METHOD: Visual
+Measure</v>
       </c>
     </row>
     <row r="78" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T78" t="str">
-        <v>FREQUENCY: Once, prior to closure of this lot / element / Work area</v>
+        <v>FREQUENCY: Each Lot</v>
       </c>
     </row>
     <row r="79" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T79" t="str">
-        <v>CATEGORY: HP*</v>
+        <v>CATEGORY: IP</v>
       </c>
     </row>
     <row r="80" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T80" t="str">
-        <v>RESPONSIBILITY: SE/PE/SPE</v>
+        <v>RESPONSIBILITY: SE</v>
       </c>
     </row>
     <row r="81" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T81" t="str">
-        <v>VERIFYING DOCUMENTS: This ITP Signed Off</v>
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="82" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T82" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="83" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T83" t="str">
+        <v>5.4 Placement - Layer Thickness</v>
+      </c>
+    </row>
+    <row r="84" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T84" t="str">
+        <v>REFERENCE: VicRoads Spec. Cl.306.11</v>
+      </c>
+    </row>
+    <row r="85" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T85" t="str">
+        <v>ACCEPTANCE CRITERIA: Compacted layer thickness should be not less than 100mm and not greater than 180mm.</v>
+      </c>
+    </row>
+    <row r="86" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T86" t="str">
+        <v>METHOD: Visual
+Measure</v>
+      </c>
+    </row>
+    <row r="87" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T87" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="88" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T88" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="89" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T89" t="str">
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+    </row>
+    <row r="90" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T90" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="91" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T91" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="92" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T92" t="str">
+        <v>5.5 Placement - Working Time</v>
+      </c>
+    </row>
+    <row r="93" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T93" t="str">
+        <v>REFERENCE: VicRoads Spec. Cl.306.07
+VicRoads Spec. Cl.306.09
+Table 306.091</v>
+      </c>
+    </row>
+    <row r="94" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T94" t="str">
+        <v>ACCEPTANCE CRITERIA: 
+Working Shall Not be more than specified for each binder:
+Rapid Setting (GP) - 2hrs (Oct-Apr) 3hrs (May-Sept)
+Medium Setting (GB) - 3hrs (Oct-Apr) 5hrs (May-Sept)
+Slow Setting (Slag) - 8hrs (Oct-Apr) 12hrs (May-Sept)
+If the ambient temperature within the period from October to April on any day is less than 15°C, the May to September maximum allowable working times may be applied.
+Attach: Delivery Dockets
+Attach: Pour record</v>
+      </c>
+    </row>
+    <row r="95" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T95" t="str">
+        <v>METHOD: Measure
+Document Review</v>
+      </c>
+    </row>
+    <row r="96" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T96" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="97" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T97" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="98" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T98" t="str">
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+    </row>
+    <row r="99" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T99" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP
+Delivery Dockets
+Attach: pour records</v>
+      </c>
+    </row>
+    <row r="100" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T100" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="101" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T101" t="str">
+        <v>5.6 Water</v>
+      </c>
+    </row>
+    <row r="102" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T102" t="str">
+        <v>REFERENCE: 
+VicRoads Spec. Cl.306.06</v>
+      </c>
+    </row>
+    <row r="103" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T103" t="str">
+        <v>ACCEPTANCE CRITERIA: Except for the purpose of curing, no water shall be added to the cementitious treated material.
+Water shall be clean and substantially free from detrimental impurities such as oils, salts, acids, alkalis and vegetable substances.</v>
+      </c>
+    </row>
+    <row r="104" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T104" t="str">
+        <v>METHOD: Visual</v>
+      </c>
+    </row>
+    <row r="105" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T105" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="106" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T106" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="107" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T107" t="str">
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+    </row>
+    <row r="108" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T108" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="109" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T109" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="110" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T110" t="str">
+        <v>5.7 Cementious binder content CHAR(AMP) UCS requirements</v>
+      </c>
+    </row>
+    <row r="111" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T111" t="str">
+        <v>REFERENCE: VicRoads Spec. 815.10</v>
+      </c>
+    </row>
+    <row r="112" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T112" t="str">
+        <v>ACCEPTANCE CRITERIA: Contractor shall carry out the UCS Testing  to determine the cemenetious binder meet the minimum 7days
+Attach: test results</v>
+      </c>
+    </row>
+    <row r="113" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T113" t="str">
+        <v>METHOD: Document Review</v>
+      </c>
+    </row>
+    <row r="114" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T114" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="115" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T115" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="116" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T116" t="str">
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+    </row>
+    <row r="117" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T117" t="str">
+        <v>VERIFYING DOCUMENTS: Test report</v>
+      </c>
+    </row>
+    <row r="118" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T118" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="119" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T119" t="str">
+        <v>5.8 Compaction - Modified Compactive Effort</v>
+      </c>
+    </row>
+    <row r="120" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T120" t="str">
+        <v>REFERENCE: 
+VicRoads Spec. Cl.306.05
+VicRoads Spec. Cl.306.09(a)(b)</v>
+      </c>
+    </row>
+    <row r="121" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T121" t="str">
+        <v>ACCEPTANCE CRITERIA: Moisture content at time of spreading and compactions is within +0.5% and –1.0% of optimum moisture content
+Scale B:
+No. of tests per lot shall be 3
+Mean density ratio &gt; 96%</v>
+      </c>
+    </row>
+    <row r="122" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T122" t="str">
+        <v>METHOD: Document review</v>
+      </c>
+    </row>
+    <row r="123" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T123" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="124" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T124" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="125" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T125" t="str">
+        <v>RESPONSIBILITY: SE</v>
+      </c>
+    </row>
+    <row r="126" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T126" t="str">
+        <v>VERIFYING DOCUMENTS: Attach:
+Test Report</v>
+      </c>
+    </row>
+    <row r="127" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T127" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="128" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T128" t="str">
+        <v>5.9 Test Rolling</v>
+      </c>
+    </row>
+    <row r="129" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T129" t="str">
+        <v>REFERENCE: 
+VicRoads Spec. Cl.306.10
+Table 
+306.091</v>
+      </c>
+    </row>
+    <row r="130" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T130" t="str">
+        <v>ACCEPTANCE CRITERIA: Test rolling to be carried out in accordance with the requirements of Section 173 on the cementitious treated pavement subbase layer within the maximum allowable working time for the relevant binder and time of year as specified in Table 306.091.</v>
+      </c>
+    </row>
+    <row r="131" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T131" t="str">
+        <v>METHOD: Visual</v>
+      </c>
+    </row>
+    <row r="132" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T132" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="133" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T133" t="str">
+        <v>CATEGORY: HP</v>
+      </c>
+    </row>
+    <row r="134" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T134" t="str">
+        <v>RESPONSIBILITY: SE, NA</v>
+      </c>
+    </row>
+    <row r="135" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T135" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="136" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T136" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="137" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T137" t="str">
+        <v>6.1 Curing</v>
+      </c>
+    </row>
+    <row r="138" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T138" t="str">
+        <v>REFERENCE: Vicroads Spec 306.11</v>
+      </c>
+    </row>
+    <row r="139" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T139" t="str">
+        <v>ACCEPTANCE CRITERIA: Pavement Design Modulus of 500 MPa:
+The surface of each compacted layer shall be kept moist for a period of seven days unless covered at an earlier stage with the succeeding layer or with an approved curing membrane</v>
+      </c>
+    </row>
+    <row r="140" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T140" t="str">
+        <v>METHOD: Visual</v>
+      </c>
+    </row>
+    <row r="141" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T141" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="142" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T142" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="143" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T143" t="str">
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+    </row>
+    <row r="144" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T144" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="145" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T145" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="146" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T146" t="str">
+        <v>6.2 Protection</v>
+      </c>
+    </row>
+    <row r="147" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T147" t="str">
+        <v>REFERENCE: Vicroads Spec 306.11</v>
+      </c>
+    </row>
+    <row r="148" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T148" t="str">
+        <v>ACCEPTANCE CRITERIA: Pavement Design Modulus of 500 MPa:
+Construction or other traffic shall not use a compacted layer within 24 hours of placement without the approval of the Superintendent.</v>
+      </c>
+    </row>
+    <row r="149" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T149" t="str">
+        <v>METHOD: Visual</v>
+      </c>
+    </row>
+    <row r="150" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T150" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="151" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T151" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="152" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T152" t="str">
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+    </row>
+    <row r="153" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T153" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="154" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T154" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="155" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T155" t="str">
+        <v>6.3 Surface level</v>
+      </c>
+    </row>
+    <row r="156" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T156" t="str">
+        <v>REFERENCE: VicRoads Spec. Cl.306.03(c)</v>
+      </c>
+    </row>
+    <row r="157" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T157" t="str">
+        <v>ACCEPTANCE CRITERIA: No point on the surface of the cementitious subbase layer shall vary by more than 8 mm from a 3 metre straight edge placed in any direction. Water shall not pond on the surface of the cementitious treated subbase</v>
+      </c>
+    </row>
+    <row r="158" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T158" t="str">
+        <v>METHOD: Document review</v>
+      </c>
+    </row>
+    <row r="159" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T159" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="160" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T160" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="161" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T161" t="str">
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+    </row>
+    <row r="162" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T162" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="163" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T163" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="164" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T164" t="str">
+        <v>6.4 Conformity with drawings-Width and alignment</v>
+      </c>
+    </row>
+    <row r="165" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T165" t="str">
+        <v>REFERENCE: VicRoads Spec. Cl.306.03(b)
+Table 306.032</v>
+      </c>
+    </row>
+    <row r="166" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T166" t="str">
+        <v>ACCEPTANCE CRITERIA: Width and Alignment: The width of pavement measured on each side of the centreline or design line shall not deviate by more than 50 mm from the designed offset when measured at a right angle.</v>
+      </c>
+    </row>
+    <row r="167" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T167" t="str">
+        <v>METHOD: Document Review</v>
+      </c>
+    </row>
+    <row r="168" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T168" t="str">
+        <v>FREQUENCY: Each Lot</v>
+      </c>
+    </row>
+    <row r="169" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T169" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="170" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T170" t="str">
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+    </row>
+    <row r="171" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T171" t="str">
+        <v>VERIFYING DOCUMENTS: Attach: Survey Report</v>
+      </c>
+    </row>
+    <row r="172" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T172" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="173" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T173" t="str">
+        <v>6.5 Conformity with drawings-Survey Level</v>
+      </c>
+    </row>
+    <row r="174" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T174" t="str">
+        <v>REFERENCE: VicRoads Spec. Cl.306.03(b)
+Table 306.032</v>
+      </c>
+    </row>
+    <row r="175" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T175" t="str">
+        <v>ACCEPTANCE CRITERIA: 
+Scale B:
+Measurements per Lot: 40
+Subgrade:
+- Mean value of all level readings to range between +5/-25
+- Standard deviation of all level readings to be less than or equal to 15
+Subbase:
+- Mean value of all level readings to range between +6/-12
+- Standard deviation of all level readings to be less than or equal to 13</v>
+      </c>
+    </row>
+    <row r="176" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T176" t="str">
+        <v>METHOD: Document Review</v>
+      </c>
+    </row>
+    <row r="177" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T177" t="str">
+        <v>FREQUENCY: Each Lot
+Scale B: 40 points per lot</v>
+      </c>
+    </row>
+    <row r="178" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T178" t="str">
+        <v>CATEGORY: IP</v>
+      </c>
+    </row>
+    <row r="179" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T179" t="str">
+        <v>RESPONSIBILITY: SE/PE</v>
+      </c>
+    </row>
+    <row r="180" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T180" t="str">
+        <v>VERIFYING DOCUMENTS: Attach: Survey Report</v>
+      </c>
+    </row>
+    <row r="181" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T181" t="str">
+        <v>Date Completed:</v>
+      </c>
+    </row>
+    <row r="182" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T182" t="str">
+        <v>6.6 Non-conformance Report (NCR) Closure</v>
+      </c>
+    </row>
+    <row r="183" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T183" t="str">
+        <v>REFERENCE: MRPA Quality Management Plan</v>
+      </c>
+    </row>
+    <row r="184" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T184" t="str">
+        <v>ACCEPTANCE CRITERIA: Ensure that any NCRs pertaining to the lot / element / Work area that this ITP covers, have been closed in Team Binder.</v>
+      </c>
+    </row>
+    <row r="185" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T185" t="str">
+        <v>METHOD: Document Review</v>
+      </c>
+    </row>
+    <row r="186" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T186" t="str">
+        <v>FREQUENCY: Once, prior to closure of this lot / element / Work area</v>
+      </c>
+    </row>
+    <row r="187" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T187" t="str">
+        <v>CATEGORY: HP*</v>
+      </c>
+    </row>
+    <row r="188" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T188" t="str">
+        <v>RESPONSIBILITY: PE/SPE</v>
+      </c>
+    </row>
+    <row r="189" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T189" t="str">
+        <v>VERIFYING DOCUMENTS: This ITP</v>
+      </c>
+    </row>
+    <row r="190" spans="20:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T190" t="str">
+        <v>Date Completed:</v>
       </c>
     </row>
   </sheetData>
